--- a/excel-files/report.xlsx
+++ b/excel-files/report.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tərcümə (İngilis Azərbaycan dilləri)</t>
+          <t>Xarici dil müəllimliyi (ingilis dili)</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Mürşüdlü Fidan Zahid qızı</t>
+          <t xml:space="preserve">Məmmədtağılı Nəzrin Surxay qızı </t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Məmmədtağılı Nəzrin Surxay qızı </t>
+          <t xml:space="preserve">Axundova Ülviyə Ülvi qızı </t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Axundova Ülviyə Ülvi qızı </t>
+          <t xml:space="preserve">Əliyeva Lətifə Musa qızı </t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Əliyeva Lətifə Musa qızı </t>
+          <t xml:space="preserve">Əsədova Nurcan Səbuhi qızı </t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Əsədova Nurcan Səbuhi qızı </t>
+          <t xml:space="preserve">İsmayılova Səma Mehman qızı </t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">İsmayılova Səma Mehman qızı </t>
+          <t>Hüseynli Aysun Əhməd qızı</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hüseynli Aysun Əhməd qızı</t>
+          <t xml:space="preserve">Həsənova Töhfə Əkbər qızı </t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Həsənova Töhfə Əkbər qızı </t>
+          <t xml:space="preserve">Rzayeva Əfsanə Samil qızı </t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rzayeva Əfsanə Samil qızı </t>
+          <t>Əliyev Əli Əfqan oğlu</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Əliyev Əli Əfqan oğlu</t>
+          <t xml:space="preserve">Xəlilova Püstə Ceyhun qızı </t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xəlilova Püstə Ceyhun qızı </t>
+          <t xml:space="preserve">Mehdiyeva Nuray İbrahim qızı </t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mehdiyeva Nuray İbrahim qızı </t>
+          <t xml:space="preserve">Qənbərova Gülçin Yunis qızı </t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qənbərova Gülçin Yunis qızı </t>
+          <t xml:space="preserve">Behbudlu Kəmalə Hidayət qızı </t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behbudlu Kəmalə Hidayət qızı </t>
+          <t xml:space="preserve">Mustafayeva Ceyran Tural qızı </t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mustafayeva Ceyran Tural qızı </t>
+          <t xml:space="preserve">Məmmədova Dilan Murad qızı </t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Məmmədova Dilan Murad qızı </t>
+          <t xml:space="preserve">Əliyeva Lalə İlqar qızı </t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Əliyeva Lalə İlqar qızı </t>
+          <t>Qəribli Ayşən Xudayar qızı</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Qəribli Ayşən Xudayar qızı</t>
+          <t xml:space="preserve">Hüseynova Arzu Əli qızı </t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüseynova Arzu Əli qızı </t>
+          <t>Allahyarova Aytac Rəşad qızı</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Allahyarova Aytac Rəşad qızı</t>
+          <t>Məmmədli Nurcan Ədalət qızı</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Məmmədli Nurcan Ədalət qızı</t>
+          <t>Məmmədli Səma Nayib qızı</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Məmmədli Səma Nayib qızı</t>
+          <t>Məmmədli Elvira Vüqar qızı</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Məmmədli Elvira Vüqar qızı</t>
+          <t xml:space="preserve">Ələkbərova Nəsirin Nəsimi qızı </t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ələkbərova Nəsirin Nəsimi qızı </t>
+          <t xml:space="preserve">Məmmədova Fatimə Vüsal qızı </t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Məmmədova Fatimə Vüsal qızı </t>
+          <t xml:space="preserve">Muradova Aysun İlham qızı </t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muradova Aysun İlham qızı </t>
+          <t xml:space="preserve">Novruzlu Səkinə Şükür qızı </t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novruzlu Səkinə Şükür qızı </t>
+          <t xml:space="preserve">Vəlibəyova Aysu İlkin qızı </t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vəlibəyova Aysu İlkin qızı </t>
+          <t xml:space="preserve">Mədədli Bəxtiyar Nüsrəddin oğlu </t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mədədli Bəxtiyar Nüsrəddin oğlu </t>
+          <t xml:space="preserve">Qurbanlı Pərvin  İsmayıl qızı </t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qurbanlı Pərvin  İsmayıl qızı </t>
+          <t>Bağırsoy Jalə Yaşar qızı</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Xarici dil müəllimliyi (ingilis dili)</t>
+          <t>Xarici dil müəllimliyi (alman dili)</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Bağırsoy Jalə Yaşar qızı</t>
+          <t>Eyvazova Roza Fariz qızı</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Eyvazova Roza Fariz qızı</t>
+          <t>Hüseynova Əminə Əziz qızı</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5119,32 +5119,32 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Xarici dillər</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Xarici dil müəllimliyi (alman dili)</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hüseynova Əminə Əziz qızı</t>
+          <t>Məmmədov Naqi Zahid oğlu</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Qəbul olunmuş</t>
+          <t>Akademik məzuniyyət qayıtmış</t>
         </is>
       </c>
       <c r="G152" s="1" t="n">
-        <v>44830</v>
+        <v>45027</v>
       </c>
       <c r="H152" t="n">
-        <v>6333</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="153">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Məmmədov Naqi Zahid oğlu</t>
+          <t>Əsədli İbrahim Şahin oğlu</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5175,7 +5175,7 @@
         <v>45027</v>
       </c>
       <c r="H153" t="n">
-        <v>6958</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="154">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Əsədli İbrahim Şahin oğlu</t>
+          <t>Hənifəyev Aqil Çapay oğlu</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5206,7 +5206,7 @@
         <v>45027</v>
       </c>
       <c r="H154" t="n">
-        <v>6957</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="155">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hənifəyev Aqil Çapay oğlu</t>
+          <t>Abazərli Nazim Məhəmmədəli oğlu</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="G155" s="1" t="n">
-        <v>45027</v>
+        <v>45209</v>
       </c>
       <c r="H155" t="n">
-        <v>6954</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="156">
@@ -5252,11 +5252,11 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Abazərli Nazim Məhəmmədəli oğlu</t>
+          <t>Cəfərov Əliullah Fəqan oğlu</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5265,41 +5265,41 @@
         </is>
       </c>
       <c r="G156" s="1" t="n">
-        <v>45209</v>
+        <v>45310</v>
       </c>
       <c r="H156" t="n">
-        <v>7528</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Cəfərov Əliullah Fəqan oğlu</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Akademik məzuniyyət qayıtmış</t>
+          <t xml:space="preserve"> Hassannezhad  Amirmohammad Habib oğlu</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G157" s="1" t="n">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="H157" t="n">
-        <v>7815</v>
+        <v>8078</v>
       </c>
     </row>
     <row r="158">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hassannezhad  Amirmohammad Habib oğlu</t>
+          <t>Danahaliloğlu Hava Yasemin Kemal qızı</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Danahaliloğlu Hava Yasemin Kemal qızı</t>
+          <t xml:space="preserve"> Alkasir Farhani Hossein Ghasem oğlu</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alkasir Farhani Hossein Ghasem oğlu</t>
+          <t>Sadeghi  Leila Jamshid qızı</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sadeghi  Leila Jamshid qızı</t>
+          <t>Kartal Muhammet Hüseyin Recep oğlu</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5429,32 +5429,32 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Kartal Muhammet Hüseyin Recep oğlu</t>
+          <t>Əsgərli Fərid Gündüz oğlu</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G162" s="1" t="n">
-        <v>45336</v>
+        <v>44862</v>
       </c>
       <c r="H162" t="n">
-        <v>8078</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="163">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Əsgərli Fərid Gündüz oğlu</t>
+          <t>Babayev Fuad Elşən oğlu</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5482,41 +5482,41 @@
         </is>
       </c>
       <c r="G163" s="1" t="n">
-        <v>44862</v>
+        <v>44816</v>
       </c>
       <c r="H163" t="n">
-        <v>6505</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Babayev Fuad Elşən oğlu</t>
+          <t xml:space="preserve"> Rezazadeh Asra Amir qızı</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G164" s="1" t="n">
-        <v>44816</v>
+        <v>45336</v>
       </c>
       <c r="H164" t="n">
-        <v>6236</v>
+        <v>8078</v>
       </c>
     </row>
     <row r="165">
@@ -5531,11 +5531,11 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rezazadeh Asra Amir qızı</t>
+          <t>Abbaszadeh Javad Ali oğlu</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Abbaszadeh Javad Ali oğlu</t>
+          <t>Riazy Golnaz Moosa qızı</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5593,11 +5593,11 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Riazy Golnaz Moosa qızı</t>
+          <t>Hosseini Mirali Mirvali oğlu</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5615,32 +5615,32 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Hosseini Mirali Mirvali oğlu</t>
+          <t>Abazərli Nazim Məhəmmədəli oğlu</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G168" s="1" t="n">
-        <v>45336</v>
+        <v>44718</v>
       </c>
       <c r="H168" t="n">
-        <v>8078</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="169">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Abazərli Nazim Məhəmmədəli oğlu</t>
+          <t>Sadiqov Nurlan Rəşadət oğlu</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5668,10 +5668,10 @@
         </is>
       </c>
       <c r="G169" s="1" t="n">
-        <v>44718</v>
+        <v>44911</v>
       </c>
       <c r="H169" t="n">
-        <v>6040</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="170">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sadiqov Nurlan Rəşadət oğlu</t>
+          <t>Nəcəfov Ceyhun İnfil oğlu</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5699,10 +5699,10 @@
         </is>
       </c>
       <c r="G170" s="1" t="n">
-        <v>44911</v>
+        <v>44882</v>
       </c>
       <c r="H170" t="n">
-        <v>6565</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="171">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Nəcəfov Ceyhun İnfil oğlu</t>
+          <t>Hənifəyev Aqil Çapay oğlu</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="G172" s="1" t="n">
-        <v>44882</v>
+        <v>44552</v>
       </c>
       <c r="H172" t="n">
-        <v>6533</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="173">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Hənifəyev Aqil Çapay oğlu</t>
+          <t>Nəhmətov Elçin Təvəbül oğlu</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5792,10 +5792,10 @@
         </is>
       </c>
       <c r="G173" s="1" t="n">
-        <v>44552</v>
+        <v>45083</v>
       </c>
       <c r="H173" t="n">
-        <v>5729</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="174">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Nəhmətov Elçin Təvəbül oğlu</t>
+          <t>Əsədli İbrahim Şahin oğlu</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="G174" s="1" t="n">
-        <v>45083</v>
+        <v>44495</v>
       </c>
       <c r="H174" t="n">
-        <v>7066</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="175">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Əsədli İbrahim Şahin oğlu</t>
+          <t>Məmmədov Naqi Zahid oğlu</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="G175" s="1" t="n">
-        <v>44495</v>
+        <v>44529</v>
       </c>
       <c r="H175" t="n">
-        <v>5631</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="176">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Məmmədov Naqi Zahid oğlu</t>
+          <t>İsmayılov Əvəz Zaur oğlu</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5885,41 +5885,41 @@
         </is>
       </c>
       <c r="G176" s="1" t="n">
-        <v>44529</v>
+        <v>44957</v>
       </c>
       <c r="H176" t="n">
-        <v>5704</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Müalicə işi</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>İsmayılov Əvəz Zaur oğlu</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Uzar Buşra Mehmet qızı</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
         </is>
       </c>
       <c r="G177" s="1" t="n">
-        <v>44957</v>
+        <v>45082</v>
       </c>
       <c r="H177" t="n">
-        <v>6633</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="178">
@@ -5941,16 +5941,16 @@
           <t>Uzar Buşra Mehmet qızı</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G178" s="1" t="n">
-        <v>45082</v>
+        <v>45336</v>
       </c>
       <c r="H178" t="n">
-        <v>7061</v>
+        <v>8078</v>
       </c>
     </row>
     <row r="179">
@@ -5961,15 +5961,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Müalicə işi</t>
+          <t>Stomatologiya</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Uzar Buşra Mehmet qızı</t>
+          <t>Mokhtari Farhad Farnoush oğlu</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Mokhtari Farhad Farnoush oğlu</t>
+          <t xml:space="preserve"> Koçak Ümit Arap oğlu</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Koçak Ümit Arap oğlu</t>
+          <t>Abdizadeh Alyar Nafiseh Majid qızı</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Abdizadeh Alyar Nafiseh Majid qızı</t>
+          <t>Azari Kheirabad Amir Ali Abdollah oğlu</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Azari Kheirabad Amir Ali Abdollah oğlu</t>
+          <t>Göleli Mert Riza oğlu</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Göleli Mert Riza oğlu</t>
+          <t>Uzun Özgür Kemal oğlu</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Uzun Özgür Kemal oğlu</t>
+          <t>Yazdekhasti Sadaf Gholamali qızı</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Yazdekhasti Sadaf Gholamali qızı</t>
+          <t xml:space="preserve"> Yousefi Babadi Farimah Seyd Morad qızı</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yousefi Babadi Farimah Seyd Morad qızı</t>
+          <t xml:space="preserve"> Öncü Ahmet Müfit Mehmet Mucip oğlu </t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Öncü Ahmet Müfit Mehmet Mucip oğlu </t>
+          <t>Salehzadeh Pouya Gholamhassan oğlu</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Salehzadeh Pouya Gholamhassan oğlu</t>
+          <t>Sattari Seyedyousef Seyedjalali oğlu</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6306,11 +6306,11 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Sattari Seyedyousef Seyedjalali oğlu</t>
+          <t>Zabet Chavarı Alıreza Mohammad oğlu</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Zabet Chavarı Alıreza Mohammad oğlu</t>
+          <t xml:space="preserve"> Khanahmadı Mobına Alımohammad qızı</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Khanahmadı Mobına Alımohammad qızı</t>
+          <t>Mardanpourghavamabad Sına Mohammad oğlu</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Mardanpourghavamabad Sına Mohammad oğlu</t>
+          <t xml:space="preserve"> Mehrjou Mehdı Mhammadalı oğlu</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mehrjou Mehdı Mhammadalı oğlu</t>
+          <t>Hakımı Seyedata Seyedazız oğlu</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Hakımı Seyedata Seyedazız oğlu</t>
+          <t>Hosseınzadeh Negar Alı qızı</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Hosseınzadeh Negar Alı qızı</t>
+          <t xml:space="preserve"> Rezazadeh Shermeh Maryam Mostafa qızı</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rezazadeh Shermeh Maryam Mostafa qızı</t>
+          <t xml:space="preserve"> Niknam Ajırlou Mehdı Ahmad oğlu</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Niknam Ajırlou Mehdı Ahmad oğlu</t>
+          <t xml:space="preserve"> Özay Furkan Salih Mayil oğlu</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Özay Furkan Salih Mayil oğlu</t>
+          <t>Başalak Baran Zafer oğlu</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Başalak Baran Zafer oğlu</t>
+          <t>Behrouzı Armın Sıavash oğlu</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6647,11 +6647,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Behrouzı Armın Sıavash oğlu</t>
+          <t>Tanik Cemil Enes Yener oğlu</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tanik Cemil Enes Yener oğlu</t>
+          <t>Elma Muhammed Beran Süleyman oğlu</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6709,11 +6709,11 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Elma Muhammed Beran Süleyman oğlu</t>
+          <t>Nazar Nezhad Olia Azadeh Ganjali qızı</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6740,11 +6740,11 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Nazar Nezhad Olia Azadeh Ganjali qızı</t>
+          <t>Asadzadeh Sepideh Noorollah qızı</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Asadzadeh Sepideh Noorollah qızı</t>
+          <t>Karamishamloo Mahdi Mousa oğlu</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Karamishamloo Mahdi Mousa oğlu</t>
+          <t xml:space="preserve">Dadashi Hassan Ramatollah oğlu    </t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dadashi Hassan Ramatollah oğlu    </t>
+          <t xml:space="preserve">Zare Khonıgh Nıloufar Mohammad qızı   </t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -6860,15 +6860,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Stomatologiya</t>
+          <t>Əczaçılıq</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zare Khonıgh Nıloufar Mohammad qızı   </t>
+          <t>Aşan Sinan Sinan oğlu</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -6895,11 +6895,11 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Aşan Sinan Sinan oğlu</t>
+          <t>Özdemir Kenan Ercan oğlu</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Özdemir Kenan Ercan oğlu</t>
+          <t>Pişkin Halil Abdullah Celaleddin oğlu</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Pişkin Halil Abdullah Celaleddin oğlu</t>
+          <t xml:space="preserve"> Uyar Yusuf Günhan Ayhan oğlu</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -6988,11 +6988,11 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Uyar Yusuf Günhan Ayhan oğlu</t>
+          <t>Kayik İshak Hasan oğlu</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Kayik İshak Hasan oğlu</t>
+          <t>Uzak Abdulkadır Mehmet Halit oğlu</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -7054,19 +7054,19 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Uzak Abdulkadır Mehmet Halit oğlu</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Ağırkaya Ayşenur Mehmet qızı</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
         </is>
       </c>
       <c r="G214" s="1" t="n">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="H214" t="n">
-        <v>8078</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="215">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Ağırkaya Ayşenur Mehmet qızı</t>
+          <t>Ağırkaya İdris Mehmet oğlu</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ağırkaya İdris Mehmet oğlu</t>
+          <t>Mohajeri Mahdi Khodavirdi oğlu</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7143,11 +7143,11 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Mohajeri Mahdi Khodavirdi oğlu</t>
+          <t xml:space="preserve">Güven Muhammed Emir Erdal oğlu	</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7170,27 +7170,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Stomatologiya</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Güven Muhammed Emir Erdal oğlu	</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Bərpa edilmiş</t>
+          <t>Javidbakhsh Parastoo Naser qızı</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sosial məzuniyyət</t>
         </is>
       </c>
       <c r="G218" s="1" t="n">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="H218" t="n">
-        <v>7975</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="219">
@@ -7209,19 +7209,19 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Javidbakhsh Parastoo Naser qızı</t>
+          <t xml:space="preserve"> Armaghan Nazila Jabraeil qızı</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Sosial məzuniyyət</t>
+          <t>Ailə vəz ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="G219" s="1" t="n">
         <v>45341</v>
       </c>
       <c r="H219" t="n">
-        <v>8058</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="220">
@@ -7236,23 +7236,23 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Armaghan Nazila Jabraeil qızı</t>
+          <t>Pourkazem Hamid Mousa oğlu</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Ailə vəz ilə əlaqədar ak.məz</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G220" s="1" t="n">
-        <v>45341</v>
+        <v>45345</v>
       </c>
       <c r="H220" t="n">
-        <v>8081</v>
+        <v>8079</v>
       </c>
     </row>
     <row r="221">
@@ -7263,27 +7263,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Stomatologiya</t>
+          <t>Əczaçılıq</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Pourkazem Hamid Mousa oğlu</t>
+          <t>Karabulut İbrahim Halil Yusuf Ergin oğlu</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Öz ərizəsi əsasında</t>
         </is>
       </c>
       <c r="G221" s="1" t="n">
-        <v>45345</v>
+        <v>45336</v>
       </c>
       <c r="H221" t="n">
-        <v>8079</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="222">
@@ -7294,27 +7294,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Karabulut İbrahim Halil Yusuf Ergin oğlu</t>
+          <t>Çeçen Ayşe Esen Birol qızı</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Öz ərizəsi əsasında</t>
+          <t>Səhhəti ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="G222" s="1" t="n">
-        <v>45336</v>
+        <v>45264</v>
       </c>
       <c r="H222" t="n">
-        <v>8030</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="223">
@@ -7325,27 +7325,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Müalicə işi</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Çeçen Ayşe Esen Birol qızı</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Səhhəti ilə əlaqədar ak.məz</t>
+          <t>Əliyeva Ülviyyə Veyis qızı</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
         </is>
       </c>
       <c r="G223" s="1" t="n">
-        <v>45264</v>
+        <v>45082</v>
       </c>
       <c r="H223" t="n">
-        <v>7754</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="224">
@@ -7356,15 +7356,15 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Müalicə işi</t>
+          <t>Stomatologiya</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Əliyeva Ülviyyə Veyis qızı</t>
+          <t>Badıllı Mehmet Fatih İsmayıl oğlu</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G224" s="1" t="n">
-        <v>45366</v>
+        <v>45082</v>
       </c>
       <c r="H224" t="n">
         <v>7061</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Badıllı Mehmet Fatih İsmayıl oğlu</t>
+          <t xml:space="preserve">Sokhanvar Jamileh Samadollah qızı  </t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="G225" s="1" t="n">
-        <v>45366</v>
+        <v>45082</v>
       </c>
       <c r="H225" t="n">
         <v>7061</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sokhanvar Jamileh Samadollah qızı  </t>
+          <t xml:space="preserve">Gür Bişenk Sait qızı  </t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gür Bişenk Sait qızı  </t>
+          <t>Hacıyeva Ayşən Vasif qızı</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Hacıyeva Ayşən Vasif qızı</t>
+          <t>Hosseinzadeh Reza Mohammed oğlu</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7519,7 +7519,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Hosseinzadeh Reza Mohammed oğlu</t>
+          <t>Heshmati Najafabad Javad Seifollah oğlu</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7542,15 +7542,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Stomatologiya</t>
+          <t>Əczaçılıq</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Hosseinzadeh Reza Mohammed oğlu</t>
+          <t>Arslan Ersoy Burhan oğlu</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7559,7 +7559,7 @@
         </is>
       </c>
       <c r="G230" s="1" t="n">
-        <v>45366</v>
+        <v>45082</v>
       </c>
       <c r="H230" t="n">
         <v>7061</v>
@@ -7573,15 +7573,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Stomatologiya</t>
+          <t>Əczaçılıq</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Heshmati Najafabad Javad Seifollah oğlu</t>
+          <t>Dursun Muhammed Fevzi oğlu</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Arslan Ersoy Burhan oğlu</t>
+          <t>Gül Helin Kaya qızı</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Dursun Muhammed Fevzi oğlu</t>
+          <t>Erol Volkan Süleyman oğlu</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Gül Helin Kaya qızı</t>
+          <t>Akkuzu İbrahim Halil oğlu</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Gül Helin Kaya qızı</t>
+          <t>Güner Ömer Mehmet Emin oğlu</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>Stomatologiya</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -7736,19 +7736,19 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Erol Volkan Süleyman oğlu</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+          <t>Bahrammalek Haleh Behrouz oğlu</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Ailə vəz ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="G236" s="1" t="n">
-        <v>45366</v>
+        <v>45183</v>
       </c>
       <c r="H236" t="n">
-        <v>7061</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="237">
@@ -7763,23 +7763,23 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Akkuzu İbrahim Halil oğlu</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+          <t>Birlk Mahmut Müslüm oğlu</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G237" s="1" t="n">
-        <v>45082</v>
+        <v>45182</v>
       </c>
       <c r="H237" t="n">
-        <v>7061</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="238">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>Stomatologiya</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -7798,19 +7798,19 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Akkuzu İbrahim Halil oğlu</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+          <t>Demr Furkan Muhammed oğlu</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Səhhəti ilə əlaqədar ak.məz</t>
         </is>
       </c>
       <c r="G238" s="1" t="n">
-        <v>45082</v>
+        <v>45189</v>
       </c>
       <c r="H238" t="n">
-        <v>7061</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="239">
@@ -7821,275 +7821,275 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>Tibb</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Güner Ömer Mehmet Emin oğlu</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+          <t>Zaidov Mecit  Umut Mirazim oğlu</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sənədləri təqdim etmədiyi üçün (miqrasiya)</t>
         </is>
       </c>
       <c r="G239" s="1" t="n">
-        <v>45082</v>
+        <v>45341</v>
       </c>
       <c r="H239" t="n">
-        <v>7061</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Memarlıq və Mühəndislik</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>İnformasiya texnologiyaları</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Güner Ömer Mehmet Emin oğlu</t>
+          <t>asdfasdfasfa</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+          <t>Qəbul olunmuş</t>
         </is>
       </c>
       <c r="G240" s="1" t="n">
-        <v>45082</v>
+        <v>45367</v>
       </c>
       <c r="H240" t="n">
-        <v>7061</v>
+        <v>789</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Memarlıq və Mühəndislik</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Stomatologiya</t>
+          <t>İnformasiya texnologiyaları</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Bahrammalek Haleh Behrouz oğlu</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Ailə vəz ilə əlaqədar ak.məz</t>
+          <t>asdfasdfasfa</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Qəbul olunmuş</t>
         </is>
       </c>
       <c r="G241" s="1" t="n">
-        <v>45183</v>
+        <v>45367</v>
       </c>
       <c r="H241" t="n">
-        <v>7460</v>
+        <v>7978871</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Memarlıq və Mühəndislik</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Əczaçılıq</t>
+          <t>İnformasiya texnologiyaları</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Birlk Mahmut Müslüm oğlu</t>
+          <t>asdfasdfasfa</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Yda-dan keçməmiş və universiteti bitirməmiş kimi</t>
         </is>
       </c>
       <c r="G242" s="1" t="n">
-        <v>45182</v>
+        <v>45369</v>
       </c>
       <c r="H242" t="n">
-        <v>7332</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Stomatologiya</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Demr Furkan Muhammed oğlu</t>
+          <t xml:space="preserve">Hüseynbəyli Ülvi Mübariz oğlu </t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Səhhəti ilə əlaqədar ak.məz</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G243" s="1" t="n">
-        <v>45189</v>
+        <v>45083</v>
       </c>
       <c r="H243" t="n">
-        <v>7462</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tibb</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Zaidov Mecit  Umut Mirazim oğlu</t>
+          <t>Rəhimov İsmayıl Fərhad oğlu</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Sənədləri təqdim etmədiyi üçün (miqrasiya)</t>
+          <t>Başqa ali məktəbdə köçürülmüş</t>
         </is>
       </c>
       <c r="G244" s="1" t="n">
-        <v>45341</v>
+        <v>44470</v>
       </c>
       <c r="H244" t="n">
-        <v>8029</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Memarlıq və Mühəndislik</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>İnformasiya texnologiyaları</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>asdfasdfasfa</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Qəbul olunmuş</t>
+          <t>Həsənzadə Heydər Möhsün oğlu</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G245" s="1" t="n">
-        <v>45367</v>
+        <v>44622</v>
       </c>
       <c r="H245" t="n">
-        <v>789</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Memarlıq və Mühəndislik</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>İnformasiya texnologiyaları</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>asdfasdfasfa</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Qəbul olunmuş</t>
+          <t>Cəfərov Əliullah Fəqan oğlu</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G246" s="1" t="n">
-        <v>45367</v>
+        <v>44818</v>
       </c>
       <c r="H246" t="n">
-        <v>7978871</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Memarlıq və Mühəndislik</t>
+          <t>Pedaqoji</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>İnformasiya texnologiyaları</t>
+          <t>Məşqçilik</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>asdfasdfasfa</t>
+          <t>Nəcəfli Murad İntiqam oğlu</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Yda-dan keçməmiş və universiteti bitirməmiş kimi</t>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G247" s="1" t="n">
-        <v>45369</v>
+        <v>44168</v>
       </c>
       <c r="H247" t="n">
-        <v>4568</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="248">
@@ -8104,11 +8104,11 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüseynbəyli Ülvi Mübariz oğlu </t>
+          <t>Hüseynbəyli Ülvi Mübariz oğlu</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8135,135 +8135,137 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Rəhimov İsmayıl Fərhad oğlu</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Başqa ali məktəbdə köçürülmüş</t>
+          <t>Hüseynbəyli Ülvi Mübariz oğlu</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
         </is>
       </c>
       <c r="G249" s="1" t="n">
-        <v>44470</v>
+        <v>45555</v>
       </c>
       <c r="H249" t="n">
-        <v>5517</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Baytarlıq təbabəti</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Həsənzadə Heydər Möhsün oğlu</t>
+          <t xml:space="preserve"> Novruzova Müjdə Ziya qızı</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G250" s="1" t="n">
-        <v>44622</v>
+        <v>45336</v>
       </c>
       <c r="H250" t="n">
-        <v>5803</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Baytarlıq təbabəti</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Cəfərov Əliullah Fəqan oğlu</t>
+          <t>Şirzadov Əjdər Afət oğlu</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G251" s="1" t="n">
-        <v>44818</v>
+        <v>45336</v>
       </c>
       <c r="H251" t="n">
-        <v>6305</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Biologiya</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Nəcəfli Murad İntiqam oğlu</t>
+          <t xml:space="preserve">Xəlilzadə Murad Elçin oğlu
+</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Öz ərizəsi əsasında</t>
         </is>
       </c>
       <c r="G252" s="1" t="n">
-        <v>44168</v>
+        <v>44566</v>
       </c>
       <c r="H252" t="n">
-        <v>4909</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Biologiya</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Hüseynbəyli Ülvi Mübariz oğlu</t>
+          <t xml:space="preserve">   Məmmədli Elçin Gülağa oğlu
+</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8272,21 +8274,21 @@
         </is>
       </c>
       <c r="G253" s="1" t="n">
-        <v>45083</v>
+        <v>45336</v>
       </c>
       <c r="H253" t="n">
-        <v>7096</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Pedaqoji</t>
+          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Məşqçilik</t>
+          <t>Torpaqşünaslıq və aqrokimya</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -8294,19 +8296,20 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Hüseynbəyli Ülvi Mübariz oğlu</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Bərpa edilmiş</t>
+          <t xml:space="preserve">Hacılı Əli Anar oğlu	
+</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Hərbi xidmətdə olduğundan ak.məz</t>
         </is>
       </c>
       <c r="G254" s="1" t="n">
-        <v>45555</v>
+        <v>45175</v>
       </c>
       <c r="H254" t="n">
-        <v>7476</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="255">
@@ -8317,27 +8320,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Baytarlıq təbabəti</t>
+          <t>Torpaqşünaslıq və aqrokimya</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Novruzova Müjdə Ziya qızı</t>
+          <t xml:space="preserve">Hüseynova Rəvanə Namiq qızı	</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Başqa ali məktəbdə köçürülmüş</t>
         </is>
       </c>
       <c r="G255" s="1" t="n">
-        <v>45336</v>
+        <v>45190</v>
       </c>
       <c r="H255" t="n">
-        <v>7971</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="256">
@@ -8348,27 +8351,28 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Baytarlıq təbabəti</t>
+          <t>Biologiya</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Şirzadov Əjdər Afət oğlu</t>
+          <t xml:space="preserve">Əliyeva Nazilə Eldəniz qızı
+</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Başqa ali məktəbdə köçürülmüş</t>
         </is>
       </c>
       <c r="G256" s="1" t="n">
-        <v>45336</v>
+        <v>44825</v>
       </c>
       <c r="H256" t="n">
-        <v>7971</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="257">
@@ -8379,28 +8383,27 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Biologiya</t>
+          <t>Baytarlıq təbabəti</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xəlilzadə Murad Elçin oğlu
-</t>
+          <t>Kaya Yusuf Alperen Yılmaz oğlu</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Öz ərizəsi əsasında</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G257" s="1" t="n">
-        <v>44566</v>
+        <v>45336</v>
       </c>
       <c r="H257" t="n">
-        <v>5756</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="258">
@@ -8411,7 +8414,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Biologiya</t>
+          <t>Baytarlıq təbabəti</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -8419,8 +8422,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Məmmədli Elçin Gülağa oğlu
-</t>
+          <t>Korkmaz Rauf Alpcan Adem oğlu</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8432,7 +8434,7 @@
         <v>45336</v>
       </c>
       <c r="H258" t="n">
-        <v>7970</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="259">
@@ -8443,7 +8445,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Torpaqşünaslıq və aqrokimya</t>
+          <t>Biologiya</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -8451,20 +8453,20 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hacılı Əli Anar oğlu	
+          <t xml:space="preserve">Qurbanova Ləman Xəqani qızı
 </t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Hərbi xidmətdə olduğundan ak.məz</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G259" s="1" t="n">
-        <v>45175</v>
+        <v>44747</v>
       </c>
       <c r="H259" t="n">
-        <v>7272</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="260">
@@ -8475,27 +8477,27 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Torpaqşünaslıq və aqrokimya</t>
+          <t>Baytarlıq təbabəti</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüseynova Rəvanə Namiq qızı	</t>
+          <t>İsmayılova Səmimə Oktay qızı</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Başqa ali məktəbdə köçürülmüş</t>
+          <t>Öz ərizəsi əsasında</t>
         </is>
       </c>
       <c r="G260" s="1" t="n">
-        <v>45190</v>
+        <v>45335</v>
       </c>
       <c r="H260" t="n">
-        <v>7382</v>
+        <v>7973</v>
       </c>
     </row>
     <row r="261">
@@ -8506,28 +8508,28 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Biologiya</t>
+          <t>Coğrafiya</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Əliyeva Nazilə Eldəniz qızı
+          <t xml:space="preserve">Əhmədova Elnarə Məmməd qızı  
 </t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Başqa ali məktəbdə köçürülmüş</t>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
         </is>
       </c>
       <c r="G261" s="1" t="n">
-        <v>44825</v>
+        <v>45112</v>
       </c>
       <c r="H261" t="n">
-        <v>7385</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="262">
@@ -8546,19 +8548,19 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Kaya Yusuf Alperen Yılmaz oğlu</t>
+          <t xml:space="preserve"> Salmanova Günəş İbrahim qızı</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Sosial məzuniyyət</t>
         </is>
       </c>
       <c r="G262" s="1" t="n">
-        <v>45336</v>
+        <v>45329</v>
       </c>
       <c r="H262" t="n">
-        <v>7971</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="263">
@@ -8569,27 +8571,28 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Baytarlıq təbabəti</t>
+          <t>Biologiya</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Korkmaz Rauf Alpcan Adem oğlu</t>
+          <t xml:space="preserve">Məmmədova Gülcan Elşad qızı
+</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Öz ərizəsi əsasında</t>
         </is>
       </c>
       <c r="G263" s="1" t="n">
-        <v>45336</v>
+        <v>45265</v>
       </c>
       <c r="H263" t="n">
-        <v>7971</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="264">
@@ -8600,7 +8603,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Biologiya</t>
+          <t>Kimya</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -8608,20 +8611,19 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qurbanova Ləman Xəqani qızı
-</t>
+          <t>Oruclu Əvəz Hafiz oğlu</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t>Öz ərizəsi əsasında</t>
         </is>
       </c>
       <c r="G264" s="1" t="n">
-        <v>44747</v>
+        <v>45264</v>
       </c>
       <c r="H264" t="n">
-        <v>6112</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="265">
@@ -8632,184 +8634,1550 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Baytarlıq təbabəti</t>
+          <t>Biologiya</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>İsmayılova Səmimə Oktay qızı</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Öz ərizəsi əsasında</t>
+          <t>Qənbərli Cavidan Cavid qızı</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Başqa ali məktəbdən köçürülmüş</t>
         </is>
       </c>
       <c r="G265" s="1" t="n">
-        <v>45335</v>
+        <v>45182</v>
       </c>
       <c r="H265" t="n">
-        <v>7973</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
+          <t>Xarici dillər</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Coğrafiya</t>
+          <t>Xarici dil müəllimliyi (rus dili)</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Əhmədova Elnarə Məmməd qızı  
-</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+          <t xml:space="preserve">İbrahimova Mehriban Seymur qızı </t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Qəbul olunmuş</t>
         </is>
       </c>
       <c r="G266" s="1" t="n">
-        <v>45112</v>
+        <v>44830</v>
       </c>
       <c r="H266" t="n">
-        <v>7113</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
+          <t>Xarici dillər</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Baytarlıq təbabəti</t>
+          <t>Xarici dil müəllimliyi (rus dili)</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Salmanova Günəş İbrahim qızı</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sosial məzuniyyət</t>
+          <t xml:space="preserve">Hüseynli Nərmin Elxan qızı </t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Qəbul olunmuş</t>
         </is>
       </c>
       <c r="G267" s="1" t="n">
-        <v>45329</v>
+        <v>44830</v>
       </c>
       <c r="H267" t="n">
-        <v>8015</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
+          <t>Xarici dillər</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Biologiya</t>
+          <t>Xarici dil müəllimliyi (rus dili)</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Məmmədova Gülcan Elşad qızı
-</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Öz ərizəsi əsasında</t>
+          <t>Əsgərova Zəhra Faiq qızı</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Qəbul olunmuş</t>
         </is>
       </c>
       <c r="G268" s="1" t="n">
-        <v>45265</v>
+        <v>44830</v>
       </c>
       <c r="H268" t="n">
-        <v>7730</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
+          <t>Tarix-Filologiya</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Tarix müəllimliyi</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Oruclu Əvəz Hafiz oğlu</t>
+          <t>Həsənova Dərya Elnur qızı</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Öz ərizəsi əsasında</t>
+          <t>Sosial məzuniyyət</t>
         </is>
       </c>
       <c r="G269" s="1" t="n">
-        <v>45264</v>
+        <v>45324</v>
       </c>
       <c r="H269" t="n">
-        <v>7715</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
+          <t>Tarix-Filologiya</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Kitabxanaçılıq və informasiya</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>4</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>İsmayılova Səkinə Mihaddin qızı</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Yda-da keçmədiyindən normativdən artıq təhsil alan</t>
+        </is>
+      </c>
+      <c r="G270" s="1" t="n">
+        <v>45324</v>
+      </c>
+      <c r="H270" t="n">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tarix-Filologiya</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Kitabxanaçılıq və informasiya fəaliyyəti</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Əhmədov Asim Arzu oğlu</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G271" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H271" t="n">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Tarix-Filologiya</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Tarix</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>3</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Bayramova Lalə Şahin qızı</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G272" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H272" t="n">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Tarix-Filologiya</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Tarix</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Əliyev Ağamir Mirxudi oğlu</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G273" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H273" t="n">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Tarix-Filologiya</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Tarix</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Əliyeva Nuray Əli qızı</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G274" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H274" t="n">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Tarix-Filologiya</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Tarix</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>3</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Abbasova Zeynəb Əkbər qızı</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G275" s="1" t="n">
+        <v>45324</v>
+      </c>
+      <c r="H275" t="n">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Xalq çalğı alətləri ifaçılığı</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Mamedov Mehrac Yalçın oğlu</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G276" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="H276" t="n">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Təsviri incəsənət müəllimliyi</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>4</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Əkbərova Arzu Lazım qızı</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G277" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="H277" t="n">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
           <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Biologiya</t>
-        </is>
-      </c>
-      <c r="C270" t="n">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Baytarlıq təbabəti</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Aslanova Günay Aydın qızı</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Akademik məzuniyyət qayıtmış</t>
+        </is>
+      </c>
+      <c r="G278" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="H278" t="n">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Təbiətşünaslıq və Kənd təsərrüfatı</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Baytarlıq təbabəti</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
         <v>3</v>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Qənbərli Cavidan Cavid qızı</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Erdem Semih Satılmış oğlu</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
         <is>
           <t>Başqa ali məktəbdən köçürülmüş</t>
         </is>
       </c>
-      <c r="G270" s="1" t="n">
+      <c r="G279" s="1" t="n">
+        <v>44452</v>
+      </c>
+      <c r="H279" t="n">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Ekologiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>3</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Hüseynli Azər Əzim oğlu</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Akademik məzuniyyət qayıtmış</t>
+        </is>
+      </c>
+      <c r="G280" s="1" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H280" t="n">
+        <v>7819</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Memarlıq</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>2</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Bitik Şervan Hikmet oğlu</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G281" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H281" t="n">
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Meliorasiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>4</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Mustafayeva Gülxanım Xələf qızı</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G282" s="1" t="n">
+        <v>45307</v>
+      </c>
+      <c r="H282" t="n">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Ekologiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>4</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Əliyeva Fatimə Arif qızı</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G283" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H283" t="n">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Meliorasiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>3</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Rzayev İlkin Yaqub oğlu</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G284" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H284" t="n">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Memarlıq</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Kandaşoğlu Mert Talip oğlu</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G285" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H285" t="n">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Memarlıq</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Aldemir Abdullah Abdülkerim oğlu</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G286" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H286" t="n">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Kompüter mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Kazımov Vüsal Cavid oğlu</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G287" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H287" t="n">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Meliorasiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>İsmayılov Musa Ramil oğlu</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G288" s="1" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H288" t="n">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Energetika mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Süleymanov Hakan Nizam oğlu</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Akademik məzuniyyət qayıtmış</t>
+        </is>
+      </c>
+      <c r="G289" s="1" t="n">
+        <v>45316</v>
+      </c>
+      <c r="H289" t="n">
+        <v>7828</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Energetika mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>2</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Süleymanov Hakan Nizam oğlu</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Akademik məzuniyyət qayıtmış</t>
+        </is>
+      </c>
+      <c r="G290" s="1" t="n">
+        <v>45316</v>
+      </c>
+      <c r="H290" t="n">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Energetika mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Aşımov Asəf Ağamehdi oğlu</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G291" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H291" t="n">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Nəqliyyat mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>4</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ələkbərov Xəzər Əkrəm oğlu</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G292" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H292" t="n">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>İnformasiya texnologiyaları</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Məmmədov Rəşad Cəfər oğlu</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G293" s="1" t="n">
+        <v>45336</v>
+      </c>
+      <c r="H293" t="n">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Meliorasiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Məmmədli Elmin Variz oğlu</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G294" s="1" t="n">
+        <v>45344</v>
+      </c>
+      <c r="H294" t="n">
+        <v>8066</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Meliorasiya mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Murtuzov Mirəli Ağası oğlu</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G295" s="1" t="n">
+        <v>45341</v>
+      </c>
+      <c r="H295" t="n">
+        <v>8062</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Nəqliyyat mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>4</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Fərəcov Rauf Elçin oğlu</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G296" s="1" t="n">
+        <v>45358</v>
+      </c>
+      <c r="H296" t="n">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Memarlıq</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mehrəliyev Sənan Əvəz oğlu </t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G297" s="1" t="n">
+        <v>45302</v>
+      </c>
+      <c r="H297" t="n">
+        <v>7772</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Nəqliyyat mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>3</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Həsənov Qoçəli Eldəniz oğlu</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G298" s="1" t="n">
+        <v>45275</v>
+      </c>
+      <c r="H298" t="n">
+        <v>7768</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Nəqliyyat mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Həsənov Qoçəli Eldəniz oğlu</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Bərpa edilmiş</t>
+        </is>
+      </c>
+      <c r="G299" s="1" t="n">
+        <v>45275</v>
+      </c>
+      <c r="H299" t="n">
+        <v>7768</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Energetika mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Əliyeva Ləman Ruhulla qızı</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G300" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="H300" t="n">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Memarlıq</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>3</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Aydın Muhammed Sefa İdham oğlu</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G301" s="1" t="n">
+        <v>45302</v>
+      </c>
+      <c r="H301" t="n">
+        <v>7771</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Memarlıq və Mühəndislik</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Nəqliyyat mühəndisliyi</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Qurbanov Fərid Azər oğlu</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G302" s="1" t="n">
+        <v>45307</v>
+      </c>
+      <c r="H302" t="n">
+        <v>7803</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Dizayn (interyer)</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Əzizov Hacı Abutalib oğlu</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G303" s="1" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H303" t="n">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Təsviri incəsənət müəllimliyi</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>4</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Nəsirli Ruqiyə İbrahim qızı</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G304" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="H304" t="n">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Xalq çalğı alətləri ifaçılığı</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Məmiyeva Nurçin Əli qızı </t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G305" s="1" t="n">
+        <v>45209</v>
+      </c>
+      <c r="H305" t="n">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Rəngkarlıq</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>4</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Musayev Əzim Əbülfəz oğlu
+</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G306" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="H306" t="n">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Təsviri incəsənət müəllimliyi</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>4</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filmanova Rəna Filman qızı
+</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G307" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="H307" t="n">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Rəngkarlıq</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>4</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Hüseynova Bağdagül Nihal</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G308" s="1" t="n">
+        <v>45334</v>
+      </c>
+      <c r="H308" t="n">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>İnstrumental ifaçılıq (Fortepiano)</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>4</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">İbrahimova Elmira Səbuhi qızı
+</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G309" s="1" t="n">
         <v>45182</v>
       </c>
-      <c r="H270" t="n">
-        <v>7322</v>
+      <c r="H309" t="n">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Xalq çalğı alətləri ifaçılığı</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>4</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>JihyeLee</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G310" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="H310" t="n">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Rəngkarlıq</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kazımlı Günel Rövşən qızı
+</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Başqa ali məktəbdə köçürülmüş</t>
+        </is>
+      </c>
+      <c r="G311" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="H311" t="n">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Musiqi müəllimliyi</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>3</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Ersoy Muhammet Ali İsmet oğlu</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G312" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="H312" t="n">
+        <v>7722</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Musiqi müəllimliyi</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Çelik Aziz Mustafa oğlu</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Sessiyaya gəlməmiş və universitetlə əlaqəni kəsmiş</t>
+        </is>
+      </c>
+      <c r="G313" s="1" t="n">
+        <v>45112</v>
+      </c>
+      <c r="H313" t="n">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>İncəsənət</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Vokal sənəti (sahələr üzrə-xanəndə)</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Həsənov Qurban Şamil oğlu</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Öz ərizəsi əsasında</t>
+        </is>
+      </c>
+      <c r="G314" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="H314" t="n">
+        <v>6901</v>
       </c>
     </row>
   </sheetData>
